--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="189">
   <si>
     <t>ref</t>
   </si>
@@ -158,9 +158,6 @@
     <t>U8</t>
   </si>
   <si>
-    <t>C25</t>
-  </si>
-  <si>
     <t>C24</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>CON1</t>
   </si>
   <si>
-    <t>C32</t>
-  </si>
-  <si>
     <t>C33</t>
   </si>
   <si>
@@ -326,9 +320,6 @@
     <t>Housings_QFP:TQFP-44_10x10mm_Pitch0.8mm</t>
   </si>
   <si>
-    <t>TO_SOT_Packages_SMD:SOT-223</t>
-  </si>
-  <si>
     <t>Capacitors_SMD:C_0805</t>
   </si>
   <si>
@@ -413,9 +404,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>C_Small</t>
   </si>
   <si>
@@ -482,9 +470,6 @@
     <t>TO_SOT_Packages_SMD: SOT-23-5</t>
   </si>
   <si>
-    <t>1.25</t>
-  </si>
-  <si>
     <t>0.76</t>
   </si>
   <si>
@@ -530,17 +515,99 @@
     <t>F_Small 0.5A</t>
   </si>
   <si>
-    <t>F_Small 1A</t>
+    <t>4.22</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>1.71</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F </t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>F_Small 3A</t>
+  </si>
+  <si>
+    <t>10.98</t>
+  </si>
+  <si>
+    <t>SER2915L-223KL</t>
+  </si>
+  <si>
+    <t>22 uH</t>
+  </si>
+  <si>
+    <t>XAL6060-103MEC</t>
+  </si>
+  <si>
+    <t>4.98</t>
+  </si>
+  <si>
+    <t>TO_SOT_Packages_SMD:SOT-223 (ZLDO1117G33TA)</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>3.84</t>
+  </si>
+  <si>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>8.19</t>
+  </si>
+  <si>
+    <t>6.59</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -566,9 +633,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,8 +836,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O52" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:O52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O50" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:O50"/>
   <tableColumns count="15">
     <tableColumn id="15" uniqueName="ref" name="ref">
       <xmlColumnPr mapId="1" xpath="/export/components/comp/@ref" xmlDataType="string"/>
@@ -795,7 +863,7 @@
     <tableColumn id="23" uniqueName="lib" name="Salvats.lv">
       <xmlColumnPr mapId="1" xpath="/export/libparts/libpart/@lib" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="42" uniqueName="42" name="10+" dataDxfId="0"/>
+    <tableColumn id="42" uniqueName="42" name="10+" dataDxfId="2"/>
     <tableColumn id="24" uniqueName="part" name="Elfase.lv">
       <xmlColumnPr mapId="1" xpath="/export/libparts/libpart/@part" xmlDataType="string"/>
     </tableColumn>
@@ -803,7 +871,7 @@
     <tableColumn id="25" uniqueName="alias" name="Lemona.lv">
       <xmlColumnPr mapId="1" xpath="/export/libparts/libpart/aliases/alias" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="40" uniqueName="40" name="10+3" dataDxfId="2"/>
+    <tableColumn id="40" uniqueName="40" name="10+3" dataDxfId="0"/>
     <tableColumn id="26" uniqueName="description" name="TME.lv">
       <xmlColumnPr mapId="1" xpath="/export/libparts/libpart/description" xmlDataType="string"/>
     </tableColumn>
@@ -1102,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1162,25 +1230,25 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O1" t="s">
         <v>4</v>
@@ -1191,16 +1259,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -1209,13 +1277,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1223,19 +1291,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -1246,17 +1314,17 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O3" s="1"/>
     </row>
@@ -1265,16 +1333,16 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -1285,14 +1353,14 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1302,16 +1370,16 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
@@ -1321,14 +1389,14 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1339,16 +1407,16 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
@@ -1357,13 +1425,13 @@
         <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1374,16 +1442,16 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
@@ -1397,7 +1465,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1407,16 +1475,16 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -1426,9 +1494,13 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1438,16 +1510,16 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
@@ -1469,16 +1541,16 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
@@ -1500,16 +1572,16 @@
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>7</v>
@@ -1531,16 +1603,16 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>7</v>
@@ -1549,7 +1621,9 @@
         <v>7</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1562,16 +1636,16 @@
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>7</v>
@@ -1579,7 +1653,9 @@
       <c r="G13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1593,16 +1669,16 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>7</v>
@@ -1624,16 +1700,16 @@
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>7</v>
@@ -1655,16 +1731,16 @@
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>7</v>
@@ -1686,16 +1762,16 @@
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>7</v>
@@ -1703,7 +1779,9 @@
       <c r="G17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1717,16 +1795,16 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>7</v>
@@ -1735,7 +1813,9 @@
         <v>7</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1747,17 +1827,17 @@
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>75</v>
+      <c r="B19" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -1779,16 +1859,16 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1797,7 +1877,9 @@
         <v>9</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1810,16 +1892,16 @@
         <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>
@@ -1827,7 +1909,9 @@
       <c r="G21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1841,16 +1925,16 @@
         <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>8</v>
@@ -1872,16 +1956,16 @@
         <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>8</v>
@@ -1903,16 +1987,16 @@
         <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>8</v>
@@ -1934,16 +2018,16 @@
         <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>8</v>
@@ -1965,16 +2049,16 @@
         <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>8</v>
@@ -1996,16 +2080,16 @@
         <v>34</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>8</v>
@@ -2027,16 +2111,16 @@
         <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>8</v>
@@ -2058,16 +2142,16 @@
         <v>36</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>8</v>
@@ -2089,16 +2173,16 @@
         <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>8</v>
@@ -2120,16 +2204,16 @@
         <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>8</v>
@@ -2151,16 +2235,16 @@
         <v>39</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>8</v>
@@ -2182,16 +2266,16 @@
         <v>40</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>8</v>
@@ -2199,7 +2283,9 @@
       <c r="G33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2213,16 +2299,16 @@
         <v>41</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>8</v>
@@ -2230,7 +2316,9 @@
       <c r="G34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2244,16 +2332,16 @@
         <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>8</v>
@@ -2261,7 +2349,9 @@
       <c r="G35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2275,16 +2365,16 @@
         <v>43</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>8</v>
@@ -2296,7 +2386,9 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="L36" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -2306,16 +2398,16 @@
         <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>8</v>
@@ -2324,7 +2416,9 @@
         <v>9</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2337,16 +2431,14 @@
         <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>108</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>8</v>
@@ -2354,7 +2446,9 @@
       <c r="G38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2368,14 +2462,16 @@
         <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="D39" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>8</v>
@@ -2397,16 +2493,16 @@
         <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>8</v>
@@ -2414,7 +2510,9 @@
       <c r="G40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2428,16 +2526,16 @@
         <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>8</v>
@@ -2446,7 +2544,9 @@
         <v>9</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2462,13 +2562,13 @@
         <v>88</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>8</v>
@@ -2478,9 +2578,15 @@
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+      <c r="J42" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -2493,13 +2599,13 @@
         <v>89</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>8</v>
@@ -2524,13 +2630,13 @@
         <v>90</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>8</v>
@@ -2539,7 +2645,9 @@
         <v>9</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2555,13 +2663,13 @@
         <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>8</v>
@@ -2573,7 +2681,9 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
+      <c r="L45" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -2586,13 +2696,13 @@
         <v>92</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>8</v>
@@ -2616,7 +2726,9 @@
       <c r="B47" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="D47" s="1" t="s">
         <v>123</v>
       </c>
@@ -2631,9 +2743,15 @@
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
+      <c r="J47" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -2646,13 +2764,13 @@
         <v>94</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -2660,11 +2778,15 @@
       <c r="G48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
+      <c r="L48" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -2677,14 +2799,14 @@
         <v>95</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="F49" s="1" t="s">
         <v>8</v>
       </c>
@@ -2692,7 +2814,9 @@
         <v>9</v>
       </c>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2708,13 +2832,13 @@
         <v>96</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>8</v>
@@ -2723,7 +2847,9 @@
         <v>9</v>
       </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -2731,72 +2857,11 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="190">
   <si>
     <t>ref</t>
   </si>
@@ -347,9 +347,6 @@
     <t>Housings_SSOP:SSOP-28_5.3x10.2mm_Pitch0.65mm</t>
   </si>
   <si>
-    <t>Crystals:Crystal_HC49-SD_SMD</t>
-  </si>
-  <si>
     <t>Resistors_SMD:R_0805_HandSoldering</t>
   </si>
   <si>
@@ -554,9 +551,6 @@
     <t xml:space="preserve">F </t>
   </si>
   <si>
-    <t>0.32</t>
-  </si>
-  <si>
     <t>F_Small 3A</t>
   </si>
   <si>
@@ -591,6 +585,15 @@
   </si>
   <si>
     <t>6.59</t>
+  </si>
+  <si>
+    <t>Quartz SMD 12 MHz, LF XTAL032878, IQD</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>1.09</t>
   </si>
 </sst>
 </file>
@@ -1172,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1230,25 +1233,25 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" t="s">
         <v>139</v>
       </c>
-      <c r="I1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" t="s">
         <v>140</v>
       </c>
-      <c r="K1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N1" t="s">
         <v>141</v>
-      </c>
-      <c r="M1" t="s">
-        <v>160</v>
-      </c>
-      <c r="N1" t="s">
-        <v>142</v>
       </c>
       <c r="O1" t="s">
         <v>4</v>
@@ -1265,7 +1268,7 @@
         <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>58</v>
@@ -1277,13 +1280,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1291,16 +1294,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>59</v>
@@ -1314,17 +1317,17 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O3" s="1"/>
     </row>
@@ -1336,10 +1339,10 @@
         <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>60</v>
@@ -1353,14 +1356,14 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1376,10 +1379,10 @@
         <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
@@ -1389,14 +1392,14 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1410,28 +1413,28 @@
         <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1448,10 +1451,10 @@
         <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
@@ -1465,7 +1468,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1481,10 +1484,10 @@
         <v>100</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -1495,11 +1498,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1516,10 +1519,10 @@
         <v>99</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
@@ -1547,10 +1550,10 @@
         <v>98</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
@@ -1578,10 +1581,10 @@
         <v>99</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>7</v>
@@ -1609,10 +1612,10 @@
         <v>99</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>7</v>
@@ -1622,7 +1625,7 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1642,7 +1645,7 @@
         <v>101</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>69</v>
@@ -1654,7 +1657,7 @@
         <v>7</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1675,7 +1678,7 @@
         <v>102</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>70</v>
@@ -1706,7 +1709,7 @@
         <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>71</v>
@@ -1731,13 +1734,13 @@
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>72</v>
@@ -1762,13 +1765,13 @@
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>72</v>
@@ -1780,7 +1783,7 @@
         <v>7</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1801,10 +1804,10 @@
         <v>105</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>7</v>
@@ -1814,7 +1817,7 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1834,7 +1837,7 @@
         <v>106</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>73</v>
@@ -1865,10 +1868,10 @@
         <v>105</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1878,7 +1881,7 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1895,13 +1898,13 @@
         <v>75</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>
@@ -1909,12 +1912,14 @@
       <c r="G21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>176</v>
-      </c>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1928,13 +1933,13 @@
         <v>76</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>8</v>
@@ -1959,13 +1964,13 @@
         <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>8</v>
@@ -1990,10 +1995,10 @@
         <v>78</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>79</v>
@@ -2021,13 +2026,13 @@
         <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>8</v>
@@ -2052,10 +2057,10 @@
         <v>79</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>79</v>
@@ -2083,10 +2088,10 @@
         <v>79</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>79</v>
@@ -2114,10 +2119,10 @@
         <v>79</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>79</v>
@@ -2145,10 +2150,10 @@
         <v>79</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>79</v>
@@ -2176,13 +2181,13 @@
         <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>8</v>
@@ -2207,10 +2212,10 @@
         <v>79</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>79</v>
@@ -2238,13 +2243,13 @@
         <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>8</v>
@@ -2272,10 +2277,10 @@
         <v>105</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>8</v>
@@ -2284,7 +2289,7 @@
         <v>9</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2305,10 +2310,10 @@
         <v>104</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>8</v>
@@ -2317,7 +2322,7 @@
         <v>9</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -2335,13 +2340,13 @@
         <v>81</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>8</v>
@@ -2350,7 +2355,7 @@
         <v>9</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2368,10 +2373,10 @@
         <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>82</v>
@@ -2387,7 +2392,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -2404,10 +2409,10 @@
         <v>105</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>8</v>
@@ -2417,7 +2422,7 @@
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2435,7 +2440,7 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>84</v>
@@ -2447,7 +2452,7 @@
         <v>9</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2465,10 +2470,10 @@
         <v>85</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>85</v>
@@ -2496,13 +2501,13 @@
         <v>86</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>8</v>
@@ -2511,7 +2516,7 @@
         <v>9</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2532,10 +2537,10 @@
         <v>105</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>8</v>
@@ -2545,7 +2550,7 @@
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2562,7 +2567,7 @@
         <v>88</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>88</v>
@@ -2579,13 +2584,13 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -2599,10 +2604,10 @@
         <v>89</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>89</v>
@@ -2630,13 +2635,13 @@
         <v>90</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>8</v>
@@ -2646,7 +2651,7 @@
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -2663,13 +2668,13 @@
         <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>8</v>
@@ -2682,7 +2687,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -2696,13 +2701,13 @@
         <v>92</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>8</v>
@@ -2727,10 +2732,10 @@
         <v>93</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>93</v>
@@ -2744,13 +2749,13 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -2764,13 +2769,13 @@
         <v>94</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -2779,13 +2784,13 @@
         <v>9</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -2802,10 +2807,10 @@
         <v>105</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>8</v>
@@ -2815,7 +2820,7 @@
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -2832,13 +2837,13 @@
         <v>96</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>8</v>
@@ -2848,7 +2853,7 @@
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>

--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\GitHub\6xUSB-Power-Meter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_127DAEE1F33CEA4C4FD1B64CD7DE26C8281A4DB3" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,8 +22,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="6xUSB_PowMet" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="6xUSB_PowMet" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="M:\Personal\GitHub\6xUSB-Power-Meter\6xUSB_PowMet.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -599,7 +605,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -659,6 +665,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -839,46 +848,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O50" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:O50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:O50" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:O50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="15" uniqueName="ref" name="ref">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="ref" name="ref">
       <xmlColumnPr mapId="1" xpath="/export/components/comp/@ref" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="16" uniqueName="value" name="value5">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="value" name="value5">
       <xmlColumnPr mapId="1" xpath="/export/components/comp/value" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="17" uniqueName="footprint" name="footprint">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="footprint" name="footprint">
       <xmlColumnPr mapId="1" xpath="/export/components/comp/footprint" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="lib" name="Count">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="lib" name="Count">
       <xmlColumnPr mapId="1" xpath="/export/components/comp/libsource/@lib" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="19" uniqueName="part" name="part">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="part" name="part">
       <xmlColumnPr mapId="1" xpath="/export/components/comp/libsource/@part" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="20" uniqueName="names" name="names">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" uniqueName="names" name="names">
       <xmlColumnPr mapId="1" xpath="/export/components/comp/sheetpath/@names" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="21" uniqueName="tstamps" name="tstamps6">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" uniqueName="tstamps" name="tstamps6">
       <xmlColumnPr mapId="1" xpath="/export/components/comp/sheetpath/@tstamps" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="23" uniqueName="lib" name="Salvats.lv">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" uniqueName="lib" name="Salvats.lv">
       <xmlColumnPr mapId="1" xpath="/export/libparts/libpart/@lib" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="42" uniqueName="42" name="10+" dataDxfId="2"/>
-    <tableColumn id="24" uniqueName="part" name="Elfase.lv">
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" uniqueName="42" name="10+" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" uniqueName="part" name="Elfase.lv">
       <xmlColumnPr mapId="1" xpath="/export/libparts/libpart/@part" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="41" uniqueName="41" name="10+2" dataDxfId="1"/>
-    <tableColumn id="25" uniqueName="alias" name="Lemona.lv">
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" uniqueName="41" name="10+2" dataDxfId="1"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" uniqueName="alias" name="Lemona.lv">
       <xmlColumnPr mapId="1" xpath="/export/libparts/libpart/aliases/alias" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="40" uniqueName="40" name="10+3" dataDxfId="0"/>
-    <tableColumn id="26" uniqueName="description" name="TME.lv">
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" uniqueName="40" name="10+3" dataDxfId="0"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" uniqueName="description" name="TME.lv">
       <xmlColumnPr mapId="1" xpath="/export/libparts/libpart/description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="27" uniqueName="docs" name="docs">
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" uniqueName="docs" name="docs">
       <xmlColumnPr mapId="1" xpath="/export/libparts/libpart/docs" xmlDataType="anyURI"/>
     </tableColumn>
   </tableColumns>
@@ -929,7 +938,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -962,9 +971,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -997,6 +1023,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1172,7 +1215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -2872,7 +2915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2884,7 +2927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
